--- a/src/main/resources/fileTemplate/shipped.xlsx
+++ b/src/main/resources/fileTemplate/shipped.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DBE24-70EB-432E-AAF5-763FAFA85FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="出仓导入表格" sheetId="1" r:id="rId1"/>
@@ -38,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PCS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,13 +66,17 @@
   </si>
   <si>
     <t>VOL体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,19 +464,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -485,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -502,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>50</v>
